--- a/03.crawler/01.RockAuto/file/6.kit_input/crawler_1.xlsx
+++ b/03.crawler/01.RockAuto/file/6.kit_input/crawler_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31900" windowHeight="14040"/>
+    <workbookView windowWidth="31900" windowHeight="14600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="ID_DC20C12E8BE942CE80121EFA9D288FB9" descr="Picture"/>
+        <xdr:cNvPr id="10" name="ID_397DB8BB80474B2E81CCD0EA3CAC1F87" descr="Picture"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -42,7 +42,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3566160" y="1280160"/>
+          <a:off x="4160520" y="1493520"/>
           <a:ext cx="4762500" cy="4762500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -54,7 +54,7 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="ID_3F7D1A05613E4C729FE1D9EB3D64A9CD" descr="Picture"/>
+        <xdr:cNvPr id="9" name="ID_4708642E035D45EA92C26CD0F84FC2A7" descr="Picture"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -65,7 +65,30 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3566160" y="213360"/>
+          <a:off x="4160520" y="853440"/>
+          <a:ext cx="4762500" cy="3752850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="ID_3F361378882746BC9924FB83B6A772DB" descr="Picture"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4160520" y="1066800"/>
           <a:ext cx="4762500" cy="4762500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -77,18 +100,18 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="ID_6073298279A9470FB21AFBD0DF1FE655" descr="Picture"/>
+        <xdr:cNvPr id="7" name="ID_4CC4AA9B1803430EB582A3BD2198B30E" descr="Picture"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3" cstate="print"/>
+        <a:blip r:embed="rId4" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3566160" y="2133600"/>
+          <a:off x="4160520" y="640080"/>
           <a:ext cx="4762500" cy="4762500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -100,18 +123,18 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="ID_AEAAAF17AC5F4BE58148E73B81A7AF03" descr="Picture"/>
+        <xdr:cNvPr id="6" name="ID_6AD0ABD609734C5985A8318130A2EE9F" descr="Picture"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4" cstate="print"/>
+        <a:blip r:embed="rId5" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3566160" y="640080"/>
+          <a:off x="4160520" y="1280160"/>
           <a:ext cx="4762500" cy="4762500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -123,18 +146,18 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="ID_A681FFE1FBD84274B0B86C3F66DDE193" descr="Picture"/>
+        <xdr:cNvPr id="5" name="ID_ACA34836A7B44056BC9B7209360AF1F9" descr="Picture"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5" cstate="print"/>
+        <a:blip r:embed="rId6" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3566160" y="1706880"/>
+          <a:off x="4160520" y="1920240"/>
           <a:ext cx="4762500" cy="4762500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -146,18 +169,41 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="ID_34E52423CFA44723AECF9033FA97AF22" descr="Picture"/>
+        <xdr:cNvPr id="4" name="ID_438068E387F146ED9767C0FA19FDD64A" descr="Picture"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6" cstate="print"/>
+        <a:blip r:embed="rId7" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3566160" y="1066800"/>
+          <a:off x="4160520" y="426720"/>
+          <a:ext cx="4762500" cy="2609850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="ID_53DB196E6B5241B799AE74A88BFF6CCB" descr="Picture"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4160520" y="2133600"/>
           <a:ext cx="4762500" cy="4762500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -169,18 +215,18 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="ID_39F365890C614A4FA251ACEC8F1BC844" descr="Picture"/>
+        <xdr:cNvPr id="2" name="ID_373E4814A06141A781AA94FC3364329B" descr="Picture"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7" cstate="print"/>
+        <a:blip r:embed="rId9" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3566160" y="1493520"/>
+          <a:off x="4160520" y="213360"/>
           <a:ext cx="4762500" cy="4762500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -192,53 +238,7 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="ID_4955381734004A7883F8C664FE67B5D1" descr="Picture"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId8" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3566160" y="426720"/>
-          <a:ext cx="4762500" cy="2609850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-  </etc:cellImage>
-  <etc:cellImage>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="ID_5D59E1182EEF4674974BA7FA67F14DD4" descr="Picture"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId9" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3566160" y="1920240"/>
-          <a:ext cx="4762500" cy="4762500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-  </etc:cellImage>
-  <etc:cellImage>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="ID_115ABA8D27E94D62B0D02807CFCA39F7" descr="Picture"/>
+        <xdr:cNvPr id="11" name="ID_C7BD6B0F857042A09A070C2879A0FBC0" descr="Picture"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -249,8 +249,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3566160" y="853440"/>
-          <a:ext cx="4762500" cy="3752850"/>
+          <a:off x="4160520" y="1706880"/>
+          <a:ext cx="4762500" cy="4762500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -267,6 +267,9 @@
     <t>No</t>
   </si>
   <si>
+    <t>Group</t>
+  </si>
+  <si>
     <t>Type</t>
   </si>
   <si>
@@ -288,15 +291,18 @@
     <t>Url</t>
   </si>
   <si>
+    <t>Note 1</t>
+  </si>
+  <si>
+    <t>Note 2</t>
+  </si>
+  <si>
+    <t>Choose</t>
+  </si>
+  <si>
     <t>Price</t>
   </si>
   <si>
-    <t>Note 1</t>
-  </si>
-  <si>
-    <t>Note 2</t>
-  </si>
-  <si>
     <t>Camshaft Sprocket Material</t>
   </si>
   <si>
@@ -315,27 +321,21 @@
     <t>Info</t>
   </si>
   <si>
-    <t>Choose</t>
+    <t>Json_Note 1</t>
+  </si>
+  <si>
+    <t>Json_Note 2</t>
   </si>
   <si>
     <t>Json_Price</t>
   </si>
   <si>
-    <t>Json_Note 1</t>
-  </si>
-  <si>
-    <t>Json_Note 2</t>
-  </si>
-  <si>
     <t>Json_Specification</t>
   </si>
   <si>
     <t>Json_Kit</t>
   </si>
   <si>
-    <t>Group</t>
-  </si>
-  <si>
     <t>Type Code</t>
   </si>
   <si>
@@ -343,6 +343,9 @@
   </si>
   <si>
     <t>JOIN_MPNTCPC</t>
+  </si>
+  <si>
+    <t>Engine</t>
   </si>
   <si>
     <t>Timing Chain &amp; Component Kit</t>
@@ -365,12 +368,12 @@
     <t>https://www.rockauto.com/en/parts/melling,30250S,timing+chain+&amp;+component+kit,5756</t>
   </si>
   <si>
+    <t>Category: Timing Chain &amp; Component Kit</t>
+  </si>
+  <si>
     <t>$171.79</t>
   </si>
   <si>
-    <t>Category: Timing Chain &amp;amp; Component Kit</t>
-  </si>
-  <si>
     <t>High Alloy Steel</t>
   </si>
   <si>
@@ -380,28 +383,25 @@
     <t>Silent</t>
   </si>
   <si>
-    <t>{"0": "https://www.rockauto.com/info/583/3-0250S-1-KIT.jpg", "1": "https://www.rockauto.com/info/583/BT7015-2-SID.jpg", "2": "https://www.rockauto.com/info/583/BG5515-1-SID.jpg", "3": "https://www.rockauto.com/info/583/715F-1-ANG.jpg", "4": "https://www.rockauto.com/info/583/S906A-1-ANG.jpg", "5": "https://www.rockauto.com/info/583/BT5514-1-ANG.jpg", "6": "https://www.rockauto.com/info/583/717F-1-ANG.jpg", "7": "https://www.rockauto.com/info/583/BT7016-1-TOP.jpg", "8": "https://www.rockauto.com/info/583/S899-1-ANG.jpg", "9": "https://www.rockauto.com/info/583/S905-1-FRO.jpg", "10": "https://www.rockauto.com/info/583/BG7019-2-SID.jpg"}</t>
+    <t>{"0": "https://www.rockauto.com/info/583/3-0250S-1-KIT.jpg", "1": "https://www.rockauto.com/info/583/BT7015-2-SID.jpg", "2": "https://www.rockauto.com/info/583/BG5515-1-SID.jpg", "3": "https://www.rockauto.com/info/583/715F-1-ANG.jpg", "4": "https://www.rockauto.com/info/583/S906A-1-FRO.jpg", "5": "https://www.rockauto.com/info/583/BT5514-1-ANG.jpg", "6": "https://www.rockauto.com/info/583/717F-1-ANG.jpg", "7": "https://www.rockauto.com/info/583/BT7016-1-TOP.jpg", "8": "https://www.rockauto.com/info/583/S899-1-FRO.jpg", "9": "https://www.rockauto.com/info/583/S905-1-FRO.jpg", "10": "https://www.rockauto.com/info/583/BG7019-2-SID.jpg"}</t>
   </si>
   <si>
     <t>https://www.rockauto.com/en/moreinfo.php?pk=8304960&amp;cc=0&amp;pt=5756</t>
   </si>
   <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>{"0": "Category: Timing Chain &amp; Component Kit"}</t>
+  </si>
+  <si>
     <t>{"0": "$171.79"}</t>
   </si>
   <si>
-    <t>{}</t>
-  </si>
-  <si>
-    <t>{"0": "Category: Timing Chain &amp;amp; Component Kit"}</t>
-  </si>
-  <si>
     <t>{"0": {"0": "Camshaft Sprocket Material", "1": "High Alloy Steel"}, "1": {"0": "Keyway Adjustable", "1": "No"}, "2": {"0": "Sprockets Included", "1": "Yes"}, "3": {"0": "Timing Chain Type", "1": "Silent"}}</t>
   </si>
   <si>
-    <t>{"0": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain", "Kit_Type Code": "5724", "Kit_Part Code": "8306448", "Kit_Part Number": "715F", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,715F,Timing Chain,5724", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=8306448&amp;cc=0&amp;pt=5724", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/715F-1-ANG.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;715F;5724;8306448"}, "1": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Guide / Damper", "Kit_Type Code": "5728", "Kit_Part Code": "8307424", "Kit_Part Number": "BG5515", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BG5515,Timing Chain Guide / Damper,5728", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=8307424&amp;cc=0&amp;pt=5728", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BG5515-1-SID.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BG5515;5728;8307424"}, "2": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Tensioner", "Kit_Type Code": "5736", "Kit_Part Code": "8308132", "Kit_Part Number": "BT5514", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT5514,Timing Chain Tensioner,5736", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=8308132&amp;cc=0&amp;pt=5736", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT5514-1-ANG.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT5514-2-TOP.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT5514;5736;8308132"}, "3": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Guide / Damper", "Kit_Type Code": "5728", "Kit_Part Code": "8308292", "Kit_Part Number": "BT7015", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT7015,Timing Chain Guide / Damper,5728", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=8308292&amp;cc=0&amp;pt=5728", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT7015-2-SID.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT7015-1-TOP.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT7015;5728;8308292"}, "4": {"Kit_Quantity": 1, "Kit_Type": "Oil Pump Chain Tensioner", "Kit_Type Code": "11860", "Kit_Part Code": "8308296", "Kit_Part Number": "BT7016", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT7016,Oil Pump Chain Tensioner,11860", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=8308296&amp;cc=0&amp;pt=11860", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT7016-1-TOP.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT7016-2-SID.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT7016;11860;8308296"}, "5": {"Kit_Quantity": 1, "Kit_Type": "Timing Crank Sprocket", "Kit_Type Code": "5723", "Kit_Part Code": "8314844", "Kit_Part Number": "S899", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,S899,Timing Crank Sprocket,5723", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=8314844&amp;cc=0&amp;pt=5723", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/S899-1-ANG.jpg\", \"1\": \"https://www.rockauto.com/info/583/S899-2-FRO.jpg\", \"2\": \"https://www.rockauto.com/info/583/S899-3-BAC.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;S899;5723;8314844"}, "6": {"Kit_Quantity": 1, "Kit_Type": "Timing Cam Sprocket", "Kit_Type Code": "5722", "Kit_Part Code": "8314860", "Kit_Part Number": "S906A", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,S906A,Timing Cam Sprocket,5722", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=8314860&amp;cc=0&amp;pt=5722", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/S906A-1-ANG.jpg\", \"1\": \"https://www.rockauto.com/info/583/S906A-2-FRO.jpg\", \"2\": \"https://www.rockauto.com/info/583/S906A-3-BAC.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;S906A;5722;8314860"}, "7": {"Kit_Quantity": 1, "Kit_Type": "Oil Pump Chain", "Kit_Type Code": "5568", "Kit_Part Code": "8527968", "Kit_Part Number": "717F", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,717F,Oil Pump Chain,5568", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=8527968&amp;cc=0&amp;pt=5568", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/717F-1-ANG.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;717F;5568;8527968"}, "8": {"Kit_Quantity": 1, "Kit_Type": "Oil Pump Chain Guide", "Kit_Type Code": "11859", "Kit_Part Code": "8921276", "Kit_Part Number": "BG7019", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BG7019,Oil Pump Chain Guide,11859", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=8921276&amp;cc=0&amp;pt=11859", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BG7019-2-SID.jpg\", \"1\": \"https://www.rockauto.com/info/583/BG7019-1-TOP.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BG7019;11859;8921276"}, "9": {"Kit_Quantity": 1, "Kit_Type": "Oil Pump Sprocket", "Kit_Type Code": "5589", "Kit_Part Code": "8921472", "Kit_Part Number": "S905", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,S905,Oil Pump Sprocket,5589", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=8921472&amp;cc=0&amp;pt=5589", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/S905-1-FRO.jpg\", \"1\": \"https://www.rockauto.com/info/583/S905-2-BAC.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;S905;5589;8921472"}}</t>
-  </si>
-  <si>
-    <t>Engine</t>
+    <t>{"0": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain", "[Kit] Type Code": "5724", "[Kit] Part Code": "8306448", "[Kit] Part Number": "715F", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,715F,Timing Chain,5724", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=8306448&amp;cc=0&amp;pt=5724", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/715F-1-ANG.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;715F;5724;8306448"}, "1": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Guide / Damper", "[Kit] Type Code": "5728", "[Kit] Part Code": "8307424", "[Kit] Part Number": "BG5515", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BG5515,Timing Chain Guide / Damper,5728", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=8307424&amp;cc=0&amp;pt=5728", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BG5515-1-SID.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BG5515;5728;8307424"}, "2": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Tensioner", "[Kit] Type Code": "5736", "[Kit] Part Code": "8308132", "[Kit] Part Number": "BT5514", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT5514,Timing Chain Tensioner,5736", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=8308132&amp;cc=0&amp;pt=5736", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT5514-1-ANG.jpg", "1": "https://www.rockauto.com/info/583/BT5514-2-TOP.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT5514;5736;8308132"}, "3": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Guide / Damper", "[Kit] Type Code": "5728", "[Kit] Part Code": "8308292", "[Kit] Part Number": "BT7015", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT7015,Timing Chain Guide / Damper,5728", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=8308292&amp;cc=0&amp;pt=5728", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT7015-2-SID.jpg", "1": "https://www.rockauto.com/info/583/BT7015-1-TOP.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT7015;5728;8308292"}, "4": {"[Kit] Quantity": 1, "[Kit] Type": "Oil Pump Chain Tensioner", "[Kit] Type Code": "11860", "[Kit] Part Code": "8308296", "[Kit] Part Number": "BT7016", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT7016,Oil Pump Chain Tensioner,11860", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=8308296&amp;cc=0&amp;pt=11860", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT7016-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BT7016-2-SID.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT7016;11860;8308296"}, "5": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Crank Sprocket", "[Kit] Type Code": "5723", "[Kit] Part Code": "8314844", "[Kit] Part Number": "S899", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,S899,Timing Crank Sprocket,5723", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=8314844&amp;cc=0&amp;pt=5723", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/S899-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/S899-2-BAC.jpg", "2": "https://www.rockauto.com/info/583/S899-3-ANG.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;S899;5723;8314844"}, "6": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Cam Sprocket", "[Kit] Type Code": "5722", "[Kit] Part Code": "8314860", "[Kit] Part Number": "S906A", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,S906A,Timing Cam Sprocket,5722", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=8314860&amp;cc=0&amp;pt=5722", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/S906A-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/S906A-2-BAC.jpg", "2": "https://www.rockauto.com/info/583/S906A-3-ANG.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;S906A;5722;8314860"}, "7": {"[Kit] Quantity": 1, "[Kit] Type": "Oil Pump Chain", "[Kit] Type Code": "5568", "[Kit] Part Code": "8527968", "[Kit] Part Number": "717F", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,717F,Oil Pump Chain,5568", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=8527968&amp;cc=0&amp;pt=5568", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/717F-1-ANG.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;717F;5568;8527968"}, "8": {"[Kit] Quantity": 1, "[Kit] Type": "Oil Pump Chain Guide", "[Kit] Type Code": "11859", "[Kit] Part Code": "8921276", "[Kit] Part Number": "BG7019", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BG7019,Oil Pump Chain Guide,11859", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=8921276&amp;cc=0&amp;pt=11859", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BG7019-2-SID.jpg", "1": "https://www.rockauto.com/info/583/BG7019-1-TOP.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BG7019;11859;8921276"}, "9": {"[Kit] Quantity": 1, "[Kit] Type": "Oil Pump Sprocket", "[Kit] Type Code": "5589", "[Kit] Part Code": "8921472", "[Kit] Part Number": "S905", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,S905,Oil Pump Sprocket,5589", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=8921472&amp;cc=0&amp;pt=5589", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/S905-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/S905-2-BAC.jpg", "2": "https://www.rockauto.com/info/583/S905-3-ANG.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;S905;5589;8921472"}}</t>
   </si>
   <si>
     <t>5756</t>
@@ -419,28 +419,28 @@
     <t>https://www.rockauto.com/en/parts/melling,30250SX,timing+chain+&amp;+component+kit,5756</t>
   </si>
   <si>
-    <t>$134.89</t>
-  </si>
-  <si>
     <t>Does Not Include Sprockets</t>
   </si>
   <si>
+    <t>$135.79</t>
+  </si>
+  <si>
     <t>{"0": "https://www.rockauto.com/info/583/3-0250SX-1-KIT.jpg", "1": "https://www.rockauto.com/info/583/BT7015-2-SID.jpg", "2": "https://www.rockauto.com/info/583/BG5515-1-SID.jpg", "3": "https://www.rockauto.com/info/583/715F-1-ANG.jpg", "4": "https://www.rockauto.com/info/583/BT5514-1-ANG.jpg", "5": "https://www.rockauto.com/info/583/717F-1-ANG.jpg", "6": "https://www.rockauto.com/info/583/BT7016-1-TOP.jpg", "7": "https://www.rockauto.com/info/583/BG7019-2-SID.jpg"}</t>
   </si>
   <si>
     <t>https://www.rockauto.com/en/moreinfo.php?pk=11158045&amp;cc=0&amp;pt=5756</t>
   </si>
   <si>
-    <t>{"0": "$134.89"}</t>
-  </si>
-  <si>
     <t>{"0": "Does Not Include Sprockets"}</t>
   </si>
   <si>
+    <t>{"0": "$135.79"}</t>
+  </si>
+  <si>
     <t>{"0": {"0": "Sprockets Included", "1": "No"}, "1": {"0": "Timing Chain Type", "1": "Silent"}}</t>
   </si>
   <si>
-    <t>{"0": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain", "Kit_Type Code": "5724", "Kit_Part Code": "8306448", "Kit_Part Number": "715F", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,715F,Timing Chain,5724", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=8306448&amp;cc=0&amp;pt=5724", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/715F-1-ANG.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;715F;5724;8306448"}, "1": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Guide / Damper", "Kit_Type Code": "5728", "Kit_Part Code": "8307424", "Kit_Part Number": "BG5515", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BG5515,Timing Chain Guide / Damper,5728", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=8307424&amp;cc=0&amp;pt=5728", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BG5515-1-SID.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BG5515;5728;8307424"}, "2": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Tensioner", "Kit_Type Code": "5736", "Kit_Part Code": "8308132", "Kit_Part Number": "BT5514", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT5514,Timing Chain Tensioner,5736", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=8308132&amp;cc=0&amp;pt=5736", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT5514-1-ANG.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT5514-2-TOP.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT5514;5736;8308132"}, "3": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Guide / Damper", "Kit_Type Code": "5728", "Kit_Part Code": "8308292", "Kit_Part Number": "BT7015", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT7015,Timing Chain Guide / Damper,5728", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=8308292&amp;cc=0&amp;pt=5728", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT7015-2-SID.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT7015-1-TOP.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT7015;5728;8308292"}, "4": {"Kit_Quantity": 1, "Kit_Type": "Oil Pump Chain Tensioner", "Kit_Type Code": "11860", "Kit_Part Code": "8308296", "Kit_Part Number": "BT7016", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT7016,Oil Pump Chain Tensioner,11860", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=8308296&amp;cc=0&amp;pt=11860", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT7016-1-TOP.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT7016-2-SID.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT7016;11860;8308296"}, "5": {"Kit_Quantity": 1, "Kit_Type": "Oil Pump Chain", "Kit_Type Code": "5568", "Kit_Part Code": "8527968", "Kit_Part Number": "717F", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,717F,Oil Pump Chain,5568", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=8527968&amp;cc=0&amp;pt=5568", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/717F-1-ANG.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;717F;5568;8527968"}, "6": {"Kit_Quantity": 1, "Kit_Type": "Oil Pump Chain Guide", "Kit_Type Code": "11859", "Kit_Part Code": "8921276", "Kit_Part Number": "BG7019", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BG7019,Oil Pump Chain Guide,11859", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=8921276&amp;cc=0&amp;pt=11859", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BG7019-2-SID.jpg\", \"1\": \"https://www.rockauto.com/info/583/BG7019-1-TOP.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BG7019;11859;8921276"}}</t>
+    <t>{"0": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain", "[Kit] Type Code": "5724", "[Kit] Part Code": "8306448", "[Kit] Part Number": "715F", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,715F,Timing Chain,5724", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=8306448&amp;cc=0&amp;pt=5724", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/715F-1-ANG.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;715F;5724;8306448"}, "1": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Guide / Damper", "[Kit] Type Code": "5728", "[Kit] Part Code": "8307424", "[Kit] Part Number": "BG5515", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BG5515,Timing Chain Guide / Damper,5728", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=8307424&amp;cc=0&amp;pt=5728", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BG5515-1-SID.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BG5515;5728;8307424"}, "2": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Tensioner", "[Kit] Type Code": "5736", "[Kit] Part Code": "8308132", "[Kit] Part Number": "BT5514", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT5514,Timing Chain Tensioner,5736", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=8308132&amp;cc=0&amp;pt=5736", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT5514-1-ANG.jpg", "1": "https://www.rockauto.com/info/583/BT5514-2-TOP.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT5514;5736;8308132"}, "3": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Guide / Damper", "[Kit] Type Code": "5728", "[Kit] Part Code": "8308292", "[Kit] Part Number": "BT7015", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT7015,Timing Chain Guide / Damper,5728", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=8308292&amp;cc=0&amp;pt=5728", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT7015-2-SID.jpg", "1": "https://www.rockauto.com/info/583/BT7015-1-TOP.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT7015;5728;8308292"}, "4": {"[Kit] Quantity": 1, "[Kit] Type": "Oil Pump Chain Tensioner", "[Kit] Type Code": "11860", "[Kit] Part Code": "8308296", "[Kit] Part Number": "BT7016", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT7016,Oil Pump Chain Tensioner,11860", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=8308296&amp;cc=0&amp;pt=11860", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT7016-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BT7016-2-SID.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT7016;11860;8308296"}, "5": {"[Kit] Quantity": 1, "[Kit] Type": "Oil Pump Chain", "[Kit] Type Code": "5568", "[Kit] Part Code": "8527968", "[Kit] Part Number": "717F", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,717F,Oil Pump Chain,5568", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=8527968&amp;cc=0&amp;pt=5568", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/717F-1-ANG.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;717F;5568;8527968"}, "6": {"[Kit] Quantity": 1, "[Kit] Type": "Oil Pump Chain Guide", "[Kit] Type Code": "11859", "[Kit] Part Code": "8921276", "[Kit] Part Number": "BG7019", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BG7019,Oil Pump Chain Guide,11859", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=8921276&amp;cc=0&amp;pt=11859", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BG7019-2-SID.jpg", "1": "https://www.rockauto.com/info/583/BG7019-1-TOP.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BG7019;11859;8921276"}}</t>
   </si>
   <si>
     <t>11158045</t>
@@ -461,7 +461,7 @@
     <t>https://www.rockauto.com/en/parts/melling,30420S,timing+chain+&amp;+component+kit,5756</t>
   </si>
   <si>
-    <t>$138.89</t>
+    <t>$139.79</t>
   </si>
   <si>
     <t>{"0": "https://www.rockauto.com/info/583/3-0420S-1-KIT.jpg"}</t>
@@ -470,7 +470,7 @@
     <t>https://www.rockauto.com/en/moreinfo.php?pk=8304968&amp;cc=0&amp;pt=5756</t>
   </si>
   <si>
-    <t>{"0": "$138.89"}</t>
+    <t>{"0": "$139.79"}</t>
   </si>
   <si>
     <t>8304968</t>
@@ -539,7 +539,7 @@
     <t>{"0": "$223.79"}</t>
   </si>
   <si>
-    <t>{"0": {"Kit_Quantity": 2, "Kit_Type": "Timing Chain", "Kit_Type Code": "5724", "Kit_Part Code": "9659040", "Kit_Part Number": "722F", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,722F,Timing Chain,5724", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659040&amp;cc=0&amp;pt=5724", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/722F-1-ANG.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;722F;5724;9659040"}, "1": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Guide / Damper", "Kit_Type Code": "5728", "Kit_Part Code": "9659056", "Kit_Part Number": "BG5053", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BG5053,Timing Chain Guide / Damper,5728", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659056&amp;cc=0&amp;pt=5728", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BG5053-1-SID.jpg\", \"1\": \"https://www.rockauto.com/info/583/BG5053-2-BAC.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BG5053;5728;9659056"}, "2": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Guide / Damper", "Kit_Type Code": "5728", "Kit_Part Code": "9659060", "Kit_Part Number": "BG5054", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BG5054,Timing Chain Guide / Damper,5728", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659060&amp;cc=0&amp;pt=5728", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BG5054-1-TOP.jpg\", \"1\": \"https://www.rockauto.com/info/583/BG5054-2-BOT.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BG5054;5728;9659060"}, "3": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Tensioner", "Kit_Type Code": "5736", "Kit_Part Code": "9659088", "Kit_Part Number": "BT5066", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT5066,Timing Chain Tensioner,5736", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659088&amp;cc=0&amp;pt=5736", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT5066-1-TOP.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT5066-2-BOT.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT5066;5736;9659088"}, "4": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Tensioner", "Kit_Type Code": "5736", "Kit_Part Code": "9659092", "Kit_Part Number": "BT5068", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT5068,Timing Chain Tensioner,5736", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659092&amp;cc=0&amp;pt=5736", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT5068-1-TOP.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT5068-2-BOT.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT5068;5736;9659092"}, "5": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Guide / Damper", "Kit_Type Code": "5728", "Kit_Part Code": "9659096", "Kit_Part Number": "BT5069", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT5069,Timing Chain Guide / Damper,5728", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659096&amp;cc=0&amp;pt=5728", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT5069-1-FRO.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT5069-2-BAC.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT5069;5728;9659096"}, "6": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Guide / Damper", "Kit_Type Code": "5728", "Kit_Part Code": "9659100", "Kit_Part Number": "BT5070", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT5070,Timing Chain Guide / Damper,5728", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659100&amp;cc=0&amp;pt=5728", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT5070-1-FRO.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT5070-2-BAC.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT5070;5728;9659100"}}</t>
+    <t>{"0": {"[Kit] Quantity": 2, "[Kit] Type": "Timing Chain", "[Kit] Type Code": "5724", "[Kit] Part Code": "9659040", "[Kit] Part Number": "722F", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,722F,Timing Chain,5724", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659040&amp;cc=0&amp;pt=5724", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/722F-1-ANG.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;722F;5724;9659040"}, "1": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Guide / Damper", "[Kit] Type Code": "5728", "[Kit] Part Code": "9659056", "[Kit] Part Number": "BG5053", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BG5053,Timing Chain Guide / Damper,5728", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659056&amp;cc=0&amp;pt=5728", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BG5053-1-SID.jpg", "1": "https://www.rockauto.com/info/583/BG5053-2-BAC.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BG5053;5728;9659056"}, "2": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Guide / Damper", "[Kit] Type Code": "5728", "[Kit] Part Code": "9659060", "[Kit] Part Number": "BG5054", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BG5054,Timing Chain Guide / Damper,5728", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659060&amp;cc=0&amp;pt=5728", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BG5054-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BG5054-2-BOT.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BG5054;5728;9659060"}, "3": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Tensioner", "[Kit] Type Code": "5736", "[Kit] Part Code": "9659088", "[Kit] Part Number": "BT5066", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT5066,Timing Chain Tensioner,5736", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659088&amp;cc=0&amp;pt=5736", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT5066-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BT5066-2-BOT.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT5066;5736;9659088"}, "4": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Tensioner", "[Kit] Type Code": "5736", "[Kit] Part Code": "9659092", "[Kit] Part Number": "BT5068", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT5068,Timing Chain Tensioner,5736", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659092&amp;cc=0&amp;pt=5736", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT5068-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BT5068-2-BOT.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT5068;5736;9659092"}, "5": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Guide / Damper", "[Kit] Type Code": "5728", "[Kit] Part Code": "9659096", "[Kit] Part Number": "BT5069", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT5069,Timing Chain Guide / Damper,5728", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659096&amp;cc=0&amp;pt=5728", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT5069-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/BT5069-2-BAC.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT5069;5728;9659096"}, "6": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Guide / Damper", "[Kit] Type Code": "5728", "[Kit] Part Code": "9659100", "[Kit] Part Number": "BT5070", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT5070,Timing Chain Guide / Damper,5728", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659100&amp;cc=0&amp;pt=5728", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT5070-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/BT5070-2-BAC.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT5070;5728;9659100"}}</t>
   </si>
   <si>
     <t>8304976</t>
@@ -575,7 +575,7 @@
     <t>{"0": {"0": "Keyway Adjustable", "1": "No"}, "1": {"0": "Sprockets Included", "1": "Yes"}, "2": {"0": "Timing Chain Type", "1": "Silent"}}</t>
   </si>
   <si>
-    <t>{"0": {"Kit_Quantity": 2, "Kit_Type": "Timing Chain", "Kit_Type Code": "5724", "Kit_Part Code": "9659040", "Kit_Part Number": "722F", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,722F,Timing Chain,5724", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659040&amp;cc=0&amp;pt=5724", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/722F-1-ANG.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;722F;5724;9659040"}, "1": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Guide / Damper", "Kit_Type Code": "5728", "Kit_Part Code": "9659056", "Kit_Part Number": "BG5053", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BG5053,Timing Chain Guide / Damper,5728", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659056&amp;cc=0&amp;pt=5728", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BG5053-1-SID.jpg\", \"1\": \"https://www.rockauto.com/info/583/BG5053-2-BAC.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BG5053;5728;9659056"}, "2": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Guide / Damper", "Kit_Type Code": "5728", "Kit_Part Code": "9659060", "Kit_Part Number": "BG5054", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BG5054,Timing Chain Guide / Damper,5728", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659060&amp;cc=0&amp;pt=5728", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BG5054-1-TOP.jpg\", \"1\": \"https://www.rockauto.com/info/583/BG5054-2-BOT.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BG5054;5728;9659060"}, "3": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Tensioner", "Kit_Type Code": "5736", "Kit_Part Code": "9659088", "Kit_Part Number": "BT5066", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT5066,Timing Chain Tensioner,5736", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659088&amp;cc=0&amp;pt=5736", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT5066-1-TOP.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT5066-2-BOT.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT5066;5736;9659088"}, "4": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Tensioner", "Kit_Type Code": "5736", "Kit_Part Code": "9659092", "Kit_Part Number": "BT5068", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT5068,Timing Chain Tensioner,5736", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659092&amp;cc=0&amp;pt=5736", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT5068-1-TOP.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT5068-2-BOT.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT5068;5736;9659092"}, "5": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Guide / Damper", "Kit_Type Code": "5728", "Kit_Part Code": "9659096", "Kit_Part Number": "BT5069", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT5069,Timing Chain Guide / Damper,5728", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659096&amp;cc=0&amp;pt=5728", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT5069-1-FRO.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT5069-2-BAC.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT5069;5728;9659096"}, "6": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Guide / Damper", "Kit_Type Code": "5728", "Kit_Part Code": "9659100", "Kit_Part Number": "BT5070", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT5070,Timing Chain Guide / Damper,5728", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659100&amp;cc=0&amp;pt=5728", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT5070-1-FRO.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT5070-2-BAC.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT5070;5728;9659100"}, "7": {"Kit_Quantity": 2, "Kit_Type": "Timing Crank Sprocket", "Kit_Type Code": "5723", "Kit_Part Code": "9659204", "Kit_Part Number": "S1251", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,S1251,Timing Crank Sprocket,5723", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659204&amp;cc=0&amp;pt=5723", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/S1251-1-FRO.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;S1251;5723;9659204"}, "8": {"Kit_Quantity": 2, "Kit_Type": "Timing Cam Sprocket", "Kit_Type Code": "5722", "Kit_Part Code": "9659212", "Kit_Part Number": "S1274", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,S1274,Timing Cam Sprocket,5722", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659212&amp;cc=0&amp;pt=5722", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/S1274-1-FRO.jpg\", \"1\": \"https://www.rockauto.com/info/583/S1274-2-BAC.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;S1274;5722;9659212"}, "9": {"Kit_Quantity": 2, "Kit_Type": "Timing Cam Sprocket", "Kit_Type Code": "5722", "Kit_Part Code": "9659216", "Kit_Part Number": "S1276", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,S1276,Timing Cam Sprocket,5722", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659216&amp;cc=0&amp;pt=5722", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/S1276-1-FRO.jpg\", \"1\": \"https://www.rockauto.com/info/583/S1276-2-BAC.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;S1276;5722;9659216"}}</t>
+    <t>{"0": {"[Kit] Quantity": 2, "[Kit] Type": "Timing Chain", "[Kit] Type Code": "5724", "[Kit] Part Code": "9659040", "[Kit] Part Number": "722F", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,722F,Timing Chain,5724", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659040&amp;cc=0&amp;pt=5724", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/722F-1-ANG.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;722F;5724;9659040"}, "1": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Guide / Damper", "[Kit] Type Code": "5728", "[Kit] Part Code": "9659056", "[Kit] Part Number": "BG5053", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BG5053,Timing Chain Guide / Damper,5728", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659056&amp;cc=0&amp;pt=5728", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BG5053-1-SID.jpg", "1": "https://www.rockauto.com/info/583/BG5053-2-BAC.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BG5053;5728;9659056"}, "2": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Guide / Damper", "[Kit] Type Code": "5728", "[Kit] Part Code": "9659060", "[Kit] Part Number": "BG5054", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BG5054,Timing Chain Guide / Damper,5728", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659060&amp;cc=0&amp;pt=5728", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BG5054-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BG5054-2-BOT.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BG5054;5728;9659060"}, "3": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Tensioner", "[Kit] Type Code": "5736", "[Kit] Part Code": "9659088", "[Kit] Part Number": "BT5066", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT5066,Timing Chain Tensioner,5736", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659088&amp;cc=0&amp;pt=5736", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT5066-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BT5066-2-BOT.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT5066;5736;9659088"}, "4": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Tensioner", "[Kit] Type Code": "5736", "[Kit] Part Code": "9659092", "[Kit] Part Number": "BT5068", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT5068,Timing Chain Tensioner,5736", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659092&amp;cc=0&amp;pt=5736", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT5068-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BT5068-2-BOT.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT5068;5736;9659092"}, "5": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Guide / Damper", "[Kit] Type Code": "5728", "[Kit] Part Code": "9659096", "[Kit] Part Number": "BT5069", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT5069,Timing Chain Guide / Damper,5728", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659096&amp;cc=0&amp;pt=5728", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT5069-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/BT5069-2-BAC.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT5069;5728;9659096"}, "6": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Guide / Damper", "[Kit] Type Code": "5728", "[Kit] Part Code": "9659100", "[Kit] Part Number": "BT5070", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT5070,Timing Chain Guide / Damper,5728", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659100&amp;cc=0&amp;pt=5728", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT5070-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/BT5070-2-BAC.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT5070;5728;9659100"}, "7": {"[Kit] Quantity": 2, "[Kit] Type": "Timing Crank Sprocket", "[Kit] Type Code": "5723", "[Kit] Part Code": "9659204", "[Kit] Part Number": "S1251", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,S1251,Timing Crank Sprocket,5723", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659204&amp;cc=0&amp;pt=5723", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/S1251-1-FRO.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;S1251;5723;9659204"}, "8": {"[Kit] Quantity": 2, "[Kit] Type": "Timing Cam Sprocket", "[Kit] Type Code": "5722", "[Kit] Part Code": "9659212", "[Kit] Part Number": "S1274", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,S1274,Timing Cam Sprocket,5722", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659212&amp;cc=0&amp;pt=5722", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/S1274-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/S1274-2-BAC.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;S1274;5722;9659212"}, "9": {"[Kit] Quantity": 2, "[Kit] Type": "Timing Cam Sprocket", "[Kit] Type Code": "5722", "[Kit] Part Code": "9659216", "[Kit] Part Number": "S1276", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,S1276,Timing Cam Sprocket,5722", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659216&amp;cc=0&amp;pt=5722", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/S1276-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/S1276-2-BAC.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;S1276;5722;9659216"}}</t>
   </si>
   <si>
     <t>9658980</t>
@@ -610,7 +610,7 @@
     <t>{"0": "$272.79"}</t>
   </si>
   <si>
-    <t>{"0": {"Kit_Quantity": 2, "Kit_Type": "Timing Chain", "Kit_Type Code": "5724", "Kit_Part Code": "9659040", "Kit_Part Number": "722F", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,722F,Timing Chain,5724", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659040&amp;cc=0&amp;pt=5724", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/722F-1-ANG.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;722F;5724;9659040"}, "1": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Guide / Damper", "Kit_Type Code": "5728", "Kit_Part Code": "9659056", "Kit_Part Number": "BG5053", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BG5053,Timing Chain Guide / Damper,5728", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659056&amp;cc=0&amp;pt=5728", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BG5053-1-SID.jpg\", \"1\": \"https://www.rockauto.com/info/583/BG5053-2-BAC.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BG5053;5728;9659056"}, "2": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Guide / Damper", "Kit_Type Code": "5728", "Kit_Part Code": "9659060", "Kit_Part Number": "BG5054", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BG5054,Timing Chain Guide / Damper,5728", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659060&amp;cc=0&amp;pt=5728", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BG5054-1-TOP.jpg\", \"1\": \"https://www.rockauto.com/info/583/BG5054-2-BOT.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BG5054;5728;9659060"}, "3": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Tensioner", "Kit_Type Code": "5736", "Kit_Part Code": "9659088", "Kit_Part Number": "BT5066", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT5066,Timing Chain Tensioner,5736", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659088&amp;cc=0&amp;pt=5736", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT5066-1-TOP.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT5066-2-BOT.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT5066;5736;9659088"}, "4": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Tensioner", "Kit_Type Code": "5736", "Kit_Part Code": "9659092", "Kit_Part Number": "BT5068", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT5068,Timing Chain Tensioner,5736", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659092&amp;cc=0&amp;pt=5736", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT5068-1-TOP.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT5068-2-BOT.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT5068;5736;9659092"}, "5": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Guide / Damper", "Kit_Type Code": "5728", "Kit_Part Code": "9659096", "Kit_Part Number": "BT5069", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT5069,Timing Chain Guide / Damper,5728", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659096&amp;cc=0&amp;pt=5728", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT5069-1-FRO.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT5069-2-BAC.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT5069;5728;9659096"}, "6": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Guide / Damper", "Kit_Type Code": "5728", "Kit_Part Code": "9659100", "Kit_Part Number": "BT5070", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT5070,Timing Chain Guide / Damper,5728", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659100&amp;cc=0&amp;pt=5728", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT5070-1-FRO.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT5070-2-BAC.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT5070;5728;9659100"}, "7": {"Kit_Quantity": 2, "Kit_Type": "Timing Crank Sprocket", "Kit_Type Code": "5723", "Kit_Part Code": "9659204", "Kit_Part Number": "S1251", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,S1251,Timing Crank Sprocket,5723", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659204&amp;cc=0&amp;pt=5723", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/S1251-1-FRO.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;S1251;5723;9659204"}, "8": {"Kit_Quantity": 2, "Kit_Type": "Timing Cam Sprocket", "Kit_Type Code": "5722", "Kit_Part Code": "9659220", "Kit_Part Number": "S1278", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,S1278,Timing Cam Sprocket,5722", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659220&amp;cc=0&amp;pt=5722", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/S1278-1-FRO.jpg\", \"1\": \"https://www.rockauto.com/info/583/S1278-2-BAC.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;S1278;5722;9659220"}}</t>
+    <t>{"0": {"[Kit] Quantity": 2, "[Kit] Type": "Timing Chain", "[Kit] Type Code": "5724", "[Kit] Part Code": "9659040", "[Kit] Part Number": "722F", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,722F,Timing Chain,5724", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659040&amp;cc=0&amp;pt=5724", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/722F-1-ANG.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;722F;5724;9659040"}, "1": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Guide / Damper", "[Kit] Type Code": "5728", "[Kit] Part Code": "9659056", "[Kit] Part Number": "BG5053", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BG5053,Timing Chain Guide / Damper,5728", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659056&amp;cc=0&amp;pt=5728", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BG5053-1-SID.jpg", "1": "https://www.rockauto.com/info/583/BG5053-2-BAC.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BG5053;5728;9659056"}, "2": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Guide / Damper", "[Kit] Type Code": "5728", "[Kit] Part Code": "9659060", "[Kit] Part Number": "BG5054", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BG5054,Timing Chain Guide / Damper,5728", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659060&amp;cc=0&amp;pt=5728", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BG5054-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BG5054-2-BOT.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BG5054;5728;9659060"}, "3": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Tensioner", "[Kit] Type Code": "5736", "[Kit] Part Code": "9659088", "[Kit] Part Number": "BT5066", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT5066,Timing Chain Tensioner,5736", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659088&amp;cc=0&amp;pt=5736", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT5066-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BT5066-2-BOT.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT5066;5736;9659088"}, "4": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Tensioner", "[Kit] Type Code": "5736", "[Kit] Part Code": "9659092", "[Kit] Part Number": "BT5068", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT5068,Timing Chain Tensioner,5736", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659092&amp;cc=0&amp;pt=5736", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT5068-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BT5068-2-BOT.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT5068;5736;9659092"}, "5": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Guide / Damper", "[Kit] Type Code": "5728", "[Kit] Part Code": "9659096", "[Kit] Part Number": "BT5069", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT5069,Timing Chain Guide / Damper,5728", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659096&amp;cc=0&amp;pt=5728", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT5069-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/BT5069-2-BAC.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT5069;5728;9659096"}, "6": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Guide / Damper", "[Kit] Type Code": "5728", "[Kit] Part Code": "9659100", "[Kit] Part Number": "BT5070", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT5070,Timing Chain Guide / Damper,5728", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659100&amp;cc=0&amp;pt=5728", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT5070-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/BT5070-2-BAC.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT5070;5728;9659100"}, "7": {"[Kit] Quantity": 2, "[Kit] Type": "Timing Crank Sprocket", "[Kit] Type Code": "5723", "[Kit] Part Code": "9659204", "[Kit] Part Number": "S1251", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,S1251,Timing Crank Sprocket,5723", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659204&amp;cc=0&amp;pt=5723", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/S1251-1-FRO.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;S1251;5723;9659204"}, "8": {"[Kit] Quantity": 2, "[Kit] Type": "Timing Cam Sprocket", "[Kit] Type Code": "5722", "[Kit] Part Code": "9659220", "[Kit] Part Number": "S1278", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,S1278,Timing Cam Sprocket,5722", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659220&amp;cc=0&amp;pt=5722", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/S1278-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/S1278-2-BAC.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;S1278;5722;9659220"}}</t>
   </si>
   <si>
     <t>9658984</t>
@@ -640,7 +640,7 @@
     <t>Single Roller</t>
   </si>
   <si>
-    <t>{"0": "https://www.rockauto.com/info/583/3-0470S-1-KIT.jpg", "1": "https://www.rockauto.com/info/583/BG5623-1-TOP.jpg", "2": "https://www.rockauto.com/info/583/BT5621-1-TOP.jpg", "3": "https://www.rockauto.com/info/583/BT5620-1-TOP.jpg", "4": "https://www.rockauto.com/info/583/470-1-ANG.jpg", "5": "https://www.rockauto.com/info/583/BT5618-1-TOP.jpg", "6": "https://www.rockauto.com/info/583/BT5619-1-TOP.jpg", "7": "https://www.rockauto.com/info/583/S960-1-TOP.jpg", "8": "https://www.rockauto.com/info/583/S961-1-FRO.jpg", "9": "https://www.rockauto.com/info/583/471-1-ANG.jpg", "10": "https://www.rockauto.com/info/583/S959-1-TOP.jpg", "11": "https://www.rockauto.com/info/583/BG5622-1-TOP.jpg"}</t>
+    <t>{"0": "https://www.rockauto.com/info/583/3-0470S-1-KIT.jpg", "1": "https://www.rockauto.com/info/583/BG5623-1-TOP.jpg", "2": "https://www.rockauto.com/info/583/BT5621-1-TOP.jpg", "3": "https://www.rockauto.com/info/583/BT5620-1-TOP.jpg", "4": "https://www.rockauto.com/info/583/470-1-ANG.jpg", "5": "https://www.rockauto.com/info/583/BT5618-1-TOP.jpg", "6": "https://www.rockauto.com/info/583/BT5619-1-TOP.jpg", "7": "https://www.rockauto.com/info/583/S960-1-FRO.jpg", "8": "https://www.rockauto.com/info/583/S961-1-FRO.jpg", "9": "https://www.rockauto.com/info/583/471-1-ANG.jpg", "10": "https://www.rockauto.com/info/583/S959-1-FRO.jpg", "11": "https://www.rockauto.com/info/583/BG5622-1-TOP.jpg"}</t>
   </si>
   <si>
     <t>https://www.rockauto.com/en/moreinfo.php?pk=8304980&amp;cc=0&amp;pt=5756</t>
@@ -652,7 +652,7 @@
     <t>{"0": {"0": "Camshaft Sprocket Material", "1": "High Alloy Steel"}, "1": {"0": "Keyway Adjustable", "1": "No"}, "2": {"0": "Sprockets Included", "1": "Yes"}, "3": {"0": "Timing Chain Type", "1": "Single Roller"}}</t>
   </si>
   <si>
-    <t>{"0": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain", "Kit_Type Code": "5724", "Kit_Part Code": "10110008", "Kit_Part Number": "470", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,470,Timing Chain,5724", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110008&amp;cc=0&amp;pt=5724", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/470-1-ANG.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;470;5724;10110008"}, "1": {"Kit_Quantity": 2, "Kit_Type": "Timing Chain", "Kit_Type Code": "5724", "Kit_Part Code": "10110012", "Kit_Part Number": "471", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,471,Timing Chain,5724", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110012&amp;cc=0&amp;pt=5724", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/471-1-ANG.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;471;5724;10110012"}, "2": {"Kit_Quantity": 2, "Kit_Type": "Timing Chain Guide / Damper", "Kit_Type Code": "5728", "Kit_Part Code": "10110016", "Kit_Part Number": "BG5622", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BG5622,Timing Chain Guide / Damper,5728", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110016&amp;cc=0&amp;pt=5728", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BG5622-1-TOP.jpg\", \"1\": \"https://www.rockauto.com/info/583/BG5622-2-BOT.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BG5622;5728;10110016"}, "3": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Guide / Damper", "Kit_Type Code": "5728", "Kit_Part Code": "10110020", "Kit_Part Number": "BG5623", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BG5623,Timing Chain Guide / Damper,5728", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110020&amp;cc=0&amp;pt=5728", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BG5623-1-TOP.jpg\", \"1\": \"https://www.rockauto.com/info/583/BG5623-2-BOT.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BG5623;5728;10110020"}, "4": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Tensioner", "Kit_Type Code": "5736", "Kit_Part Code": "10110028", "Kit_Part Number": "BT5618", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT5618,Timing Chain Tensioner,5736", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110028&amp;cc=0&amp;pt=5736", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT5618-1-TOP.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT5618-2-BOT.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT5618;5736;10110028"}, "5": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Tensioner", "Kit_Type Code": "5736", "Kit_Part Code": "10110032", "Kit_Part Number": "BT5619", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT5619,Timing Chain Tensioner,5736", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110032&amp;cc=0&amp;pt=5736", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT5619-1-TOP.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT5619-2-BOT.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT5619;5736;10110032"}, "6": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Tensioner", "Kit_Type Code": "5736", "Kit_Part Code": "10110036", "Kit_Part Number": "BT5620", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT5620,Timing Chain Tensioner,5736", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110036&amp;cc=0&amp;pt=5736", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT5620-1-TOP.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT5620-2-BOT.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT5620;5736;10110036"}, "7": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Guide / Damper", "Kit_Type Code": "5728", "Kit_Part Code": "10110040", "Kit_Part Number": "BT5621", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT5621,Timing Chain Guide / Damper,5728", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110040&amp;cc=0&amp;pt=5728", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT5621-1-TOP.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT5621-2-BOT.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT5621;5728;10110040"}, "8": {"Kit_Quantity": 1, "Kit_Type": "Timing Crank Sprocket", "Kit_Type Code": "5723", "Kit_Part Code": "10454636", "Kit_Part Number": "S959", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,S959,Timing Crank Sprocket,5723", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=10454636&amp;cc=0&amp;pt=5723", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/S959-1-TOP.jpg\", \"1\": \"https://www.rockauto.com/info/583/S959-2-BOT.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;S959;5723;10454636"}, "9": {"Kit_Quantity": 2, "Kit_Type": "Timing Cam Sprocket", "Kit_Type Code": "5722", "Kit_Part Code": "10454640", "Kit_Part Number": "S960", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,S960,Timing Cam Sprocket,5722", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=10454640&amp;cc=0&amp;pt=5722", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/S960-1-TOP.jpg\", \"1\": \"https://www.rockauto.com/info/583/S960-2-BAC.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;S960;5722;10454640"}, "10": {"Kit_Quantity": 1, "Kit_Type": "Timing Idler Sprocket", "Kit_Type Code": "10465", "Kit_Part Code": "10454644", "Kit_Part Number": "S961", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,S961,Timing Idler Sprocket,10465", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=10454644&amp;cc=0&amp;pt=10465", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/S961-1-FRO.jpg\", \"1\": \"https://www.rockauto.com/info/583/S961-2-BAC.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;S961;10465;10454644"}}</t>
+    <t>{"0": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain", "[Kit] Type Code": "5724", "[Kit] Part Code": "10110008", "[Kit] Part Number": "470", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,470,Timing Chain,5724", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110008&amp;cc=0&amp;pt=5724", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/470-1-ANG.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;470;5724;10110008"}, "1": {"[Kit] Quantity": 2, "[Kit] Type": "Timing Chain", "[Kit] Type Code": "5724", "[Kit] Part Code": "10110012", "[Kit] Part Number": "471", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,471,Timing Chain,5724", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110012&amp;cc=0&amp;pt=5724", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/471-1-ANG.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;471;5724;10110012"}, "2": {"[Kit] Quantity": 2, "[Kit] Type": "Timing Chain Guide / Damper", "[Kit] Type Code": "5728", "[Kit] Part Code": "10110016", "[Kit] Part Number": "BG5622", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BG5622,Timing Chain Guide / Damper,5728", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110016&amp;cc=0&amp;pt=5728", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BG5622-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BG5622-2-BOT.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BG5622;5728;10110016"}, "3": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Guide / Damper", "[Kit] Type Code": "5728", "[Kit] Part Code": "10110020", "[Kit] Part Number": "BG5623", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BG5623,Timing Chain Guide / Damper,5728", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110020&amp;cc=0&amp;pt=5728", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BG5623-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BG5623-2-BOT.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BG5623;5728;10110020"}, "4": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Tensioner", "[Kit] Type Code": "5736", "[Kit] Part Code": "10110028", "[Kit] Part Number": "BT5618", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT5618,Timing Chain Tensioner,5736", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110028&amp;cc=0&amp;pt=5736", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT5618-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BT5618-2-BOT.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT5618;5736;10110028"}, "5": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Tensioner", "[Kit] Type Code": "5736", "[Kit] Part Code": "10110032", "[Kit] Part Number": "BT5619", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT5619,Timing Chain Tensioner,5736", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110032&amp;cc=0&amp;pt=5736", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT5619-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BT5619-2-BOT.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT5619;5736;10110032"}, "6": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Tensioner", "[Kit] Type Code": "5736", "[Kit] Part Code": "10110036", "[Kit] Part Number": "BT5620", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT5620,Timing Chain Tensioner,5736", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110036&amp;cc=0&amp;pt=5736", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT5620-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BT5620-2-BOT.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT5620;5736;10110036"}, "7": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Guide / Damper", "[Kit] Type Code": "5728", "[Kit] Part Code": "10110040", "[Kit] Part Number": "BT5621", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT5621,Timing Chain Guide / Damper,5728", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110040&amp;cc=0&amp;pt=5728", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT5621-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BT5621-2-BOT.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT5621;5728;10110040"}, "8": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Crank Sprocket", "[Kit] Type Code": "5723", "[Kit] Part Code": "10454636", "[Kit] Part Number": "S959", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,S959,Timing Crank Sprocket,5723", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=10454636&amp;cc=0&amp;pt=5723", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/S959-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/S959-2-BAC.jpg", "2": "https://www.rockauto.com/info/583/S959-3-ANG.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;S959;5723;10454636"}, "9": {"[Kit] Quantity": 2, "[Kit] Type": "Timing Cam Sprocket", "[Kit] Type Code": "5722", "[Kit] Part Code": "10454640", "[Kit] Part Number": "S960", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,S960,Timing Cam Sprocket,5722", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=10454640&amp;cc=0&amp;pt=5722", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/S960-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/S960-2-BAC.jpg", "2": "https://www.rockauto.com/info/583/S960-3-ANG.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;S960;5722;10454640"}, "10": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Idler Sprocket", "[Kit] Type Code": "10465", "[Kit] Part Code": "10454644", "[Kit] Part Number": "S961", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,S961,Timing Idler Sprocket,10465", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=10454644&amp;cc=0&amp;pt=10465", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/S961-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/S961-2-BAC.jpg", "2": "https://www.rockauto.com/info/583/S961-3-ANG.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;S961;10465;10454644"}}</t>
   </si>
   <si>
     <t>8304980</t>
@@ -682,7 +682,7 @@
     <t>{"0": {"0": "Keyway Adjustable", "1": "No"}, "1": {"0": "Sprockets Included", "1": "No"}, "2": {"0": "Timing Chain Type", "1": "Single Roller"}}</t>
   </si>
   <si>
-    <t>{"0": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain", "Kit_Type Code": "5724", "Kit_Part Code": "10110008", "Kit_Part Number": "470", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,470,Timing Chain,5724", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110008&amp;cc=0&amp;pt=5724", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/470-1-ANG.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;470;5724;10110008"}, "1": {"Kit_Quantity": 2, "Kit_Type": "Timing Chain", "Kit_Type Code": "5724", "Kit_Part Code": "10110012", "Kit_Part Number": "471", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,471,Timing Chain,5724", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110012&amp;cc=0&amp;pt=5724", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/471-1-ANG.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;471;5724;10110012"}, "2": {"Kit_Quantity": 2, "Kit_Type": "Timing Chain Guide / Damper", "Kit_Type Code": "5728", "Kit_Part Code": "10110016", "Kit_Part Number": "BG5622", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BG5622,Timing Chain Guide / Damper,5728", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110016&amp;cc=0&amp;pt=5728", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BG5622-1-TOP.jpg\", \"1\": \"https://www.rockauto.com/info/583/BG5622-2-BOT.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BG5622;5728;10110016"}, "3": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Guide / Damper", "Kit_Type Code": "5728", "Kit_Part Code": "10110020", "Kit_Part Number": "BG5623", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BG5623,Timing Chain Guide / Damper,5728", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110020&amp;cc=0&amp;pt=5728", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BG5623-1-TOP.jpg\", \"1\": \"https://www.rockauto.com/info/583/BG5623-2-BOT.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BG5623;5728;10110020"}, "4": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Tensioner", "Kit_Type Code": "5736", "Kit_Part Code": "10110028", "Kit_Part Number": "BT5618", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT5618,Timing Chain Tensioner,5736", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110028&amp;cc=0&amp;pt=5736", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT5618-1-TOP.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT5618-2-BOT.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT5618;5736;10110028"}, "5": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Tensioner", "Kit_Type Code": "5736", "Kit_Part Code": "10110032", "Kit_Part Number": "BT5619", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT5619,Timing Chain Tensioner,5736", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110032&amp;cc=0&amp;pt=5736", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT5619-1-TOP.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT5619-2-BOT.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT5619;5736;10110032"}, "6": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Tensioner", "Kit_Type Code": "5736", "Kit_Part Code": "10110036", "Kit_Part Number": "BT5620", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT5620,Timing Chain Tensioner,5736", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110036&amp;cc=0&amp;pt=5736", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT5620-1-TOP.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT5620-2-BOT.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT5620;5736;10110036"}, "7": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Guide / Damper", "Kit_Type Code": "5728", "Kit_Part Code": "10110040", "Kit_Part Number": "BT5621", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT5621,Timing Chain Guide / Damper,5728", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110040&amp;cc=0&amp;pt=5728", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT5621-1-TOP.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT5621-2-BOT.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT5621;5728;10110040"}}</t>
+    <t>{"0": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain", "[Kit] Type Code": "5724", "[Kit] Part Code": "10110008", "[Kit] Part Number": "470", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,470,Timing Chain,5724", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110008&amp;cc=0&amp;pt=5724", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/470-1-ANG.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;470;5724;10110008"}, "1": {"[Kit] Quantity": 2, "[Kit] Type": "Timing Chain", "[Kit] Type Code": "5724", "[Kit] Part Code": "10110012", "[Kit] Part Number": "471", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,471,Timing Chain,5724", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110012&amp;cc=0&amp;pt=5724", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/471-1-ANG.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;471;5724;10110012"}, "2": {"[Kit] Quantity": 2, "[Kit] Type": "Timing Chain Guide / Damper", "[Kit] Type Code": "5728", "[Kit] Part Code": "10110016", "[Kit] Part Number": "BG5622", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BG5622,Timing Chain Guide / Damper,5728", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110016&amp;cc=0&amp;pt=5728", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BG5622-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BG5622-2-BOT.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BG5622;5728;10110016"}, "3": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Guide / Damper", "[Kit] Type Code": "5728", "[Kit] Part Code": "10110020", "[Kit] Part Number": "BG5623", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BG5623,Timing Chain Guide / Damper,5728", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110020&amp;cc=0&amp;pt=5728", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BG5623-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BG5623-2-BOT.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BG5623;5728;10110020"}, "4": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Tensioner", "[Kit] Type Code": "5736", "[Kit] Part Code": "10110028", "[Kit] Part Number": "BT5618", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT5618,Timing Chain Tensioner,5736", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110028&amp;cc=0&amp;pt=5736", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT5618-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BT5618-2-BOT.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT5618;5736;10110028"}, "5": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Tensioner", "[Kit] Type Code": "5736", "[Kit] Part Code": "10110032", "[Kit] Part Number": "BT5619", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT5619,Timing Chain Tensioner,5736", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110032&amp;cc=0&amp;pt=5736", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT5619-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BT5619-2-BOT.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT5619;5736;10110032"}, "6": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Tensioner", "[Kit] Type Code": "5736", "[Kit] Part Code": "10110036", "[Kit] Part Number": "BT5620", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT5620,Timing Chain Tensioner,5736", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110036&amp;cc=0&amp;pt=5736", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT5620-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BT5620-2-BOT.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT5620;5736;10110036"}, "7": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Guide / Damper", "[Kit] Type Code": "5728", "[Kit] Part Code": "10110040", "[Kit] Part Number": "BT5621", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT5621,Timing Chain Guide / Damper,5728", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110040&amp;cc=0&amp;pt=5728", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT5621-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BT5621-2-BOT.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT5621;5728;10110040"}}</t>
   </si>
   <si>
     <t>10110000</t>
@@ -731,7 +731,7 @@
     <t>{"0": {"0": "Camshaft Sprocket Material", "1": "High Alloy Steel"}, "1": {"0": "Keyway Adjustable", "1": "No"}, "2": {"0": "Sprockets Included", "1": "Yes"}, "3": {"0": "Timing Chain Type", "1": "Roller"}}</t>
   </si>
   <si>
-    <t>{"0": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain", "Kit_Type Code": "5724", "Kit_Part Code": "8921164", "Kit_Part Number": "1025", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,1025,Timing Chain,5724", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=8921164&amp;cc=0&amp;pt=5724", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/1025-1-ANG.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;1025;5724;8921164"}, "1": {"Kit_Quantity": 2, "Kit_Type": "Timing Chain", "Kit_Type Code": "5724", "Kit_Part Code": "8921168", "Kit_Part Number": "1026", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,1026,Timing Chain,5724", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=8921168&amp;cc=0&amp;pt=5724", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/1026-1-ANG.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;1026;5724;8921168"}, "2": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Tensioner", "Kit_Type Code": "5736", "Kit_Part Code": "8921288", "Kit_Part Number": "BT5079", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT5079,Timing Chain Tensioner,5736", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=8921288&amp;cc=0&amp;pt=5736", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT5079-1-FRO.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT5079-2-BAC.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT5079;5736;8921288"}, "3": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Tensioner", "Kit_Type Code": "5736", "Kit_Part Code": "9659104", "Kit_Part Number": "BT5077", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT5077,Timing Chain Tensioner,5736", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659104&amp;cc=0&amp;pt=5736", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT5077-1-RIT.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT5077-2-LEF.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT5077;5736;9659104"}, "4": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Tensioner", "Kit_Type Code": "5736", "Kit_Part Code": "9659108", "Kit_Part Number": "BT5078", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT5078,Timing Chain Tensioner,5736", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659108&amp;cc=0&amp;pt=5736", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT5078-1-RIT.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT5078-2-LEF.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT5078;5736;9659108"}, "5": {"Kit_Quantity": 1, "Kit_Type": "Timing Crank Sprocket", "Kit_Type Code": "5723", "Kit_Part Code": "9659208", "Kit_Part Number": "S1261", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,S1261,Timing Crank Sprocket,5723", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659208&amp;cc=0&amp;pt=5723", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/S1261-1-FRO.jpg\", \"1\": \"https://www.rockauto.com/info/583/S1261-2-BAC.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;S1261;5723;9659208"}, "6": {"Kit_Quantity": 1, "Kit_Type": "Timing Idler Sprocket", "Kit_Type Code": "10465", "Kit_Part Code": "9659228", "Kit_Part Number": "S1290", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,S1290,Timing Idler Sprocket,10465", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659228&amp;cc=0&amp;pt=10465", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/S1290-1-FRO.jpg\", \"1\": \"https://www.rockauto.com/info/583/S1290-2-BAC.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;S1290;10465;9659228"}, "7": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Guide / Damper", "Kit_Type Code": "5728", "Kit_Part Code": "9722104", "Kit_Part Number": "BG5062", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BG5062,Timing Chain Guide / Damper,5728", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9722104&amp;cc=0&amp;pt=5728", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BG5062-1-FRO.jpg\", \"1\": \"https://www.rockauto.com/info/583/BG5062-2-BAC.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BG5062;5728;9722104"}, "8": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Guide / Damper", "Kit_Type Code": "5728", "Kit_Part Code": "9722108", "Kit_Part Number": "BG5063", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BG5063,Timing Chain Guide / Damper,5728", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9722108&amp;cc=0&amp;pt=5728", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BG5063-1-FRO.jpg\", \"1\": \"https://www.rockauto.com/info/583/BG5063-2-BAC.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BG5063;5728;9722108"}}</t>
+    <t>{"0": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain", "[Kit] Type Code": "5724", "[Kit] Part Code": "8921164", "[Kit] Part Number": "1025", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,1025,Timing Chain,5724", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=8921164&amp;cc=0&amp;pt=5724", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/1025-1-ANG.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;1025;5724;8921164"}, "1": {"[Kit] Quantity": 2, "[Kit] Type": "Timing Chain", "[Kit] Type Code": "5724", "[Kit] Part Code": "8921168", "[Kit] Part Number": "1026", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,1026,Timing Chain,5724", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=8921168&amp;cc=0&amp;pt=5724", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/1026-1-ANG.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;1026;5724;8921168"}, "2": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Tensioner", "[Kit] Type Code": "5736", "[Kit] Part Code": "8921288", "[Kit] Part Number": "BT5079", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT5079,Timing Chain Tensioner,5736", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=8921288&amp;cc=0&amp;pt=5736", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT5079-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/BT5079-2-BAC.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT5079;5736;8921288"}, "3": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Tensioner", "[Kit] Type Code": "5736", "[Kit] Part Code": "9659104", "[Kit] Part Number": "BT5077", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT5077,Timing Chain Tensioner,5736", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659104&amp;cc=0&amp;pt=5736", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT5077-1-RIT.jpg", "1": "https://www.rockauto.com/info/583/BT5077-2-LEF.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT5077;5736;9659104"}, "4": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Tensioner", "[Kit] Type Code": "5736", "[Kit] Part Code": "9659108", "[Kit] Part Number": "BT5078", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT5078,Timing Chain Tensioner,5736", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659108&amp;cc=0&amp;pt=5736", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT5078-1-RIT.jpg", "1": "https://www.rockauto.com/info/583/BT5078-2-LEF.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT5078;5736;9659108"}, "5": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Crank Sprocket", "[Kit] Type Code": "5723", "[Kit] Part Code": "9659208", "[Kit] Part Number": "S1261", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,S1261,Timing Crank Sprocket,5723", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659208&amp;cc=0&amp;pt=5723", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/S1261-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/S1261-2-BAC.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;S1261;5723;9659208"}, "6": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Idler Sprocket", "[Kit] Type Code": "10465", "[Kit] Part Code": "9659228", "[Kit] Part Number": "S1290", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,S1290,Timing Idler Sprocket,10465", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659228&amp;cc=0&amp;pt=10465", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/S1290-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/S1290-2-BAC.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;S1290;10465;9659228"}, "7": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Guide / Damper", "[Kit] Type Code": "5728", "[Kit] Part Code": "9722104", "[Kit] Part Number": "BG5062", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BG5062,Timing Chain Guide / Damper,5728", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9722104&amp;cc=0&amp;pt=5728", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BG5062-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/BG5062-2-BAC.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BG5062;5728;9722104"}, "8": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Guide / Damper", "[Kit] Type Code": "5728", "[Kit] Part Code": "9722108", "[Kit] Part Number": "BG5063", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BG5063,Timing Chain Guide / Damper,5728", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9722108&amp;cc=0&amp;pt=5728", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BG5063-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/BG5063-2-BAC.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BG5063;5728;9722108"}}</t>
   </si>
   <si>
     <t>8304984</t>
@@ -1727,12 +1727,12 @@
   <dimension ref="A1:AA11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7 G2 G11 G4 G9 G6 G8 G3 G10 G5"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="7" max="7" width="14.4230769230769"/>
+    <col min="8" max="8" width="14.4230769230769"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -1837,42 +1837,42 @@
       <c r="F2" t="s">
         <v>31</v>
       </c>
-      <c r="G2" t="str">
-        <f>_xlfn.DISPIMG("ID_3F7D1A05613E4C729FE1D9EB3D64A9CD",1)</f>
-        <v>=DISPIMG("ID_3F7D1A05613E4C729FE1D9EB3D64A9CD",1)</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="str">
+        <f>_xlfn.DISPIMG("ID_373E4814A06141A781AA94FC3364329B",1)</f>
+        <v>=DISPIMG("ID_373E4814A06141A781AA94FC3364329B",1)</v>
       </c>
       <c r="I2" t="s">
         <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
         <v>34</v>
       </c>
       <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
         <v>35</v>
-      </c>
-      <c r="M2" t="s">
-        <v>0</v>
       </c>
       <c r="N2" t="s">
         <v>36</v>
       </c>
       <c r="O2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
         <v>37</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>39</v>
-      </c>
-      <c r="R2" t="s">
-        <v>31</v>
       </c>
       <c r="S2" t="s">
         <v>40</v>
@@ -1913,68 +1913,68 @@
         <v>28</v>
       </c>
       <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
         <v>49</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
       </c>
       <c r="F3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" t="str">
-        <f>_xlfn.DISPIMG("ID_4955381734004A7883F8C664FE67B5D1",1)</f>
-        <v>=DISPIMG("ID_4955381734004A7883F8C664FE67B5D1",1)</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="str">
+        <f>_xlfn.DISPIMG("ID_438068E387F146ED9767C0FA19FDD64A",1)</f>
+        <v>=DISPIMG("ID_438068E387F146ED9767C0FA19FDD64A",1)</v>
+      </c>
+      <c r="I3" t="s">
         <v>50</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>51</v>
-      </c>
-      <c r="J3" t="s">
-        <v>52</v>
       </c>
       <c r="K3" t="s">
         <v>34</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M3" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" t="s">
         <v>0</v>
       </c>
-      <c r="O3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" t="s">
         <v>53</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>54</v>
       </c>
-      <c r="R3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>55</v>
-      </c>
-      <c r="T3" t="s">
-        <v>56</v>
       </c>
       <c r="U3" t="s">
         <v>42</v>
       </c>
       <c r="V3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W3" t="s">
         <v>57</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>58</v>
-      </c>
-      <c r="X3" t="s">
-        <v>45</v>
       </c>
       <c r="Y3" t="s">
         <v>46</v>
@@ -1997,53 +1997,53 @@
         <v>28</v>
       </c>
       <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
         <v>61</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>62</v>
       </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" t="str">
-        <f>_xlfn.DISPIMG("ID_AEAAAF17AC5F4BE58148E73B81A7AF03",1)</f>
-        <v>=DISPIMG("ID_AEAAAF17AC5F4BE58148E73B81A7AF03",1)</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="str">
+        <f>_xlfn.DISPIMG("ID_4CC4AA9B1803430EB582A3BD2198B30E",1)</f>
+        <v>=DISPIMG("ID_4CC4AA9B1803430EB582A3BD2198B30E",1)</v>
+      </c>
+      <c r="I4" t="s">
         <v>63</v>
       </c>
-      <c r="I4" t="s">
-        <v>64</v>
-      </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K4" t="s">
         <v>34</v>
       </c>
       <c r="L4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M4" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="N4" t="s">
         <v>36</v>
       </c>
       <c r="O4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" t="s">
         <v>37</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" t="s">
         <v>65</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>66</v>
-      </c>
-      <c r="R4" t="s">
-        <v>31</v>
-      </c>
-      <c r="S4" t="s">
-        <v>67</v>
       </c>
       <c r="T4" t="s">
         <v>41</v>
@@ -2052,13 +2052,13 @@
         <v>42</v>
       </c>
       <c r="V4" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="W4" t="s">
+        <v>44</v>
+      </c>
+      <c r="X4" t="s">
         <v>41</v>
-      </c>
-      <c r="X4" t="s">
-        <v>45</v>
       </c>
       <c r="Y4" t="s">
         <v>46</v>
@@ -2081,53 +2081,53 @@
         <v>28</v>
       </c>
       <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
         <v>70</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>71</v>
       </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="str">
-        <f>_xlfn.DISPIMG("ID_115ABA8D27E94D62B0D02807CFCA39F7",1)</f>
-        <v>=DISPIMG("ID_115ABA8D27E94D62B0D02807CFCA39F7",1)</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="str">
+        <f>_xlfn.DISPIMG("ID_4708642E035D45EA92C26CD0F84FC2A7",1)</f>
+        <v>=DISPIMG("ID_4708642E035D45EA92C26CD0F84FC2A7",1)</v>
+      </c>
+      <c r="I5" t="s">
         <v>72</v>
       </c>
-      <c r="I5" t="s">
-        <v>73</v>
-      </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K5" t="s">
         <v>34</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M5" t="s">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="N5" t="s">
         <v>36</v>
       </c>
       <c r="O5" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="P5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" t="s">
         <v>74</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
         <v>75</v>
-      </c>
-      <c r="R5" t="s">
-        <v>31</v>
-      </c>
-      <c r="S5" t="s">
-        <v>76</v>
       </c>
       <c r="T5" t="s">
         <v>41</v>
@@ -2136,13 +2136,13 @@
         <v>42</v>
       </c>
       <c r="V5" t="s">
+        <v>76</v>
+      </c>
+      <c r="W5" t="s">
         <v>77</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>41</v>
-      </c>
-      <c r="X5" t="s">
-        <v>45</v>
       </c>
       <c r="Y5" t="s">
         <v>46</v>
@@ -2165,68 +2165,68 @@
         <v>28</v>
       </c>
       <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
         <v>80</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>81</v>
       </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" t="str">
-        <f>_xlfn.DISPIMG("ID_34E52423CFA44723AECF9033FA97AF22",1)</f>
-        <v>=DISPIMG("ID_34E52423CFA44723AECF9033FA97AF22",1)</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="str">
+        <f>_xlfn.DISPIMG("ID_3F361378882746BC9924FB83B6A772DB",1)</f>
+        <v>=DISPIMG("ID_3F361378882746BC9924FB83B6A772DB",1)</v>
+      </c>
+      <c r="I6" t="s">
         <v>82</v>
       </c>
-      <c r="I6" t="s">
-        <v>83</v>
-      </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K6" t="s">
         <v>34</v>
       </c>
       <c r="L6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M6" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="N6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" t="s">
         <v>0</v>
       </c>
-      <c r="O6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
+        <v>38</v>
+      </c>
+      <c r="R6" t="s">
         <v>84</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="S6" t="s">
         <v>85</v>
       </c>
-      <c r="R6" t="s">
-        <v>31</v>
-      </c>
-      <c r="S6" t="s">
-        <v>86</v>
-      </c>
       <c r="T6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U6" t="s">
         <v>42</v>
       </c>
       <c r="V6" t="s">
+        <v>86</v>
+      </c>
+      <c r="W6" t="s">
         <v>57</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>87</v>
-      </c>
-      <c r="X6" t="s">
-        <v>45</v>
       </c>
       <c r="Y6" t="s">
         <v>46</v>
@@ -2249,53 +2249,53 @@
         <v>28</v>
       </c>
       <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
         <v>90</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>91</v>
       </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" t="str">
-        <f>_xlfn.DISPIMG("ID_DC20C12E8BE942CE80121EFA9D288FB9",1)</f>
-        <v>=DISPIMG("ID_DC20C12E8BE942CE80121EFA9D288FB9",1)</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="str">
+        <f>_xlfn.DISPIMG("ID_6AD0ABD609734C5985A8318130A2EE9F",1)</f>
+        <v>=DISPIMG("ID_6AD0ABD609734C5985A8318130A2EE9F",1)</v>
+      </c>
+      <c r="I7" t="s">
         <v>92</v>
       </c>
-      <c r="I7" t="s">
-        <v>93</v>
-      </c>
       <c r="J7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K7" t="s">
         <v>34</v>
       </c>
       <c r="L7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M7" t="s">
+        <v>93</v>
+      </c>
+      <c r="N7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" t="s">
         <v>0</v>
       </c>
-      <c r="N7" t="s">
-        <v>36</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>37</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R7" t="s">
         <v>94</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="S7" t="s">
         <v>95</v>
-      </c>
-      <c r="R7" t="s">
-        <v>31</v>
-      </c>
-      <c r="S7" t="s">
-        <v>96</v>
       </c>
       <c r="T7" t="s">
         <v>41</v>
@@ -2304,13 +2304,13 @@
         <v>42</v>
       </c>
       <c r="V7" t="s">
+        <v>96</v>
+      </c>
+      <c r="W7" t="s">
         <v>97</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>98</v>
-      </c>
-      <c r="X7" t="s">
-        <v>45</v>
       </c>
       <c r="Y7" t="s">
         <v>46</v>
@@ -2333,53 +2333,53 @@
         <v>28</v>
       </c>
       <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
         <v>101</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>102</v>
       </c>
-      <c r="F8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" t="str">
-        <f>_xlfn.DISPIMG("ID_39F365890C614A4FA251ACEC8F1BC844",1)</f>
-        <v>=DISPIMG("ID_39F365890C614A4FA251ACEC8F1BC844",1)</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" t="str">
+        <f>_xlfn.DISPIMG("ID_397DB8BB80474B2E81CCD0EA3CAC1F87",1)</f>
+        <v>=DISPIMG("ID_397DB8BB80474B2E81CCD0EA3CAC1F87",1)</v>
+      </c>
+      <c r="I8" t="s">
         <v>103</v>
       </c>
-      <c r="I8" t="s">
-        <v>104</v>
-      </c>
       <c r="J8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K8" t="s">
         <v>34</v>
       </c>
       <c r="L8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M8" t="s">
+        <v>104</v>
+      </c>
+      <c r="N8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" t="s">
         <v>0</v>
       </c>
-      <c r="N8" t="s">
-        <v>36</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>37</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R8" t="s">
         <v>105</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="S8" t="s">
         <v>106</v>
-      </c>
-      <c r="R8" t="s">
-        <v>31</v>
-      </c>
-      <c r="S8" t="s">
-        <v>107</v>
       </c>
       <c r="T8" t="s">
         <v>41</v>
@@ -2388,13 +2388,13 @@
         <v>42</v>
       </c>
       <c r="V8" t="s">
+        <v>107</v>
+      </c>
+      <c r="W8" t="s">
         <v>97</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>108</v>
-      </c>
-      <c r="X8" t="s">
-        <v>45</v>
       </c>
       <c r="Y8" t="s">
         <v>46</v>
@@ -2417,53 +2417,53 @@
         <v>28</v>
       </c>
       <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
         <v>111</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>112</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>113</v>
       </c>
-      <c r="G9" t="str">
-        <f>_xlfn.DISPIMG("ID_A681FFE1FBD84274B0B86C3F66DDE193",1)</f>
-        <v>=DISPIMG("ID_A681FFE1FBD84274B0B86C3F66DDE193",1)</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="H9" t="str">
+        <f>_xlfn.DISPIMG("ID_C7BD6B0F857042A09A070C2879A0FBC0",1)</f>
+        <v>=DISPIMG("ID_C7BD6B0F857042A09A070C2879A0FBC0",1)</v>
+      </c>
+      <c r="I9" t="s">
         <v>114</v>
       </c>
-      <c r="I9" t="s">
-        <v>115</v>
-      </c>
       <c r="J9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K9" t="s">
         <v>34</v>
       </c>
       <c r="L9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M9" t="s">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="N9" t="s">
         <v>36</v>
       </c>
       <c r="O9" t="s">
+        <v>0</v>
+      </c>
+      <c r="P9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9" t="s">
         <v>116</v>
       </c>
-      <c r="P9" t="s">
+      <c r="R9" t="s">
         <v>117</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="S9" t="s">
         <v>118</v>
-      </c>
-      <c r="R9" t="s">
-        <v>31</v>
-      </c>
-      <c r="S9" t="s">
-        <v>119</v>
       </c>
       <c r="T9" t="s">
         <v>41</v>
@@ -2472,13 +2472,13 @@
         <v>42</v>
       </c>
       <c r="V9" t="s">
+        <v>119</v>
+      </c>
+      <c r="W9" t="s">
         <v>120</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>121</v>
-      </c>
-      <c r="X9" t="s">
-        <v>45</v>
       </c>
       <c r="Y9" t="s">
         <v>46</v>
@@ -2501,68 +2501,68 @@
         <v>28</v>
       </c>
       <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
         <v>124</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>112</v>
       </c>
-      <c r="F10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" t="str">
-        <f>_xlfn.DISPIMG("ID_5D59E1182EEF4674974BA7FA67F14DD4",1)</f>
-        <v>=DISPIMG("ID_5D59E1182EEF4674974BA7FA67F14DD4",1)</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" t="str">
+        <f>_xlfn.DISPIMG("ID_ACA34836A7B44056BC9B7209360AF1F9",1)</f>
+        <v>=DISPIMG("ID_ACA34836A7B44056BC9B7209360AF1F9",1)</v>
+      </c>
+      <c r="I10" t="s">
         <v>125</v>
       </c>
-      <c r="I10" t="s">
-        <v>126</v>
-      </c>
       <c r="J10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K10" t="s">
         <v>34</v>
       </c>
       <c r="L10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M10" t="s">
+        <v>126</v>
+      </c>
+      <c r="N10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" t="s">
         <v>0</v>
       </c>
-      <c r="N10" t="s">
+      <c r="P10" t="s">
         <v>0</v>
       </c>
-      <c r="O10" t="s">
+      <c r="Q10" t="s">
         <v>116</v>
       </c>
-      <c r="P10" t="s">
+      <c r="R10" t="s">
         <v>127</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="S10" t="s">
         <v>128</v>
       </c>
-      <c r="R10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S10" t="s">
-        <v>129</v>
-      </c>
       <c r="T10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U10" t="s">
         <v>42</v>
       </c>
       <c r="V10" t="s">
+        <v>129</v>
+      </c>
+      <c r="W10" t="s">
         <v>130</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>131</v>
-      </c>
-      <c r="X10" t="s">
-        <v>45</v>
       </c>
       <c r="Y10" t="s">
         <v>46</v>
@@ -2585,53 +2585,53 @@
         <v>28</v>
       </c>
       <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
         <v>134</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>135</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>136</v>
       </c>
-      <c r="G11" t="str">
-        <f>_xlfn.DISPIMG("ID_6073298279A9470FB21AFBD0DF1FE655",1)</f>
-        <v>=DISPIMG("ID_6073298279A9470FB21AFBD0DF1FE655",1)</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="H11" t="str">
+        <f>_xlfn.DISPIMG("ID_53DB196E6B5241B799AE74A88BFF6CCB",1)</f>
+        <v>=DISPIMG("ID_53DB196E6B5241B799AE74A88BFF6CCB",1)</v>
+      </c>
+      <c r="I11" t="s">
         <v>137</v>
       </c>
-      <c r="I11" t="s">
-        <v>138</v>
-      </c>
       <c r="J11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K11" t="s">
         <v>34</v>
       </c>
       <c r="L11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M11" t="s">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="N11" t="s">
         <v>36</v>
       </c>
       <c r="O11" t="s">
+        <v>0</v>
+      </c>
+      <c r="P11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q11" t="s">
         <v>139</v>
       </c>
-      <c r="P11" t="s">
+      <c r="R11" t="s">
         <v>140</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="S11" t="s">
         <v>141</v>
-      </c>
-      <c r="R11" t="s">
-        <v>31</v>
-      </c>
-      <c r="S11" t="s">
-        <v>142</v>
       </c>
       <c r="T11" t="s">
         <v>41</v>
@@ -2640,13 +2640,13 @@
         <v>42</v>
       </c>
       <c r="V11" t="s">
+        <v>142</v>
+      </c>
+      <c r="W11" t="s">
         <v>143</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>144</v>
-      </c>
-      <c r="X11" t="s">
-        <v>45</v>
       </c>
       <c r="Y11" t="s">
         <v>46</v>
